--- a/report-nucor.xlsx
+++ b/report-nucor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iiq\code\demo\src\iiq-projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A16F96C-568E-4663-85E6-858B40C6411E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22BD8AC-910B-4753-A53E-98F86599F91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EB39E0EF-9BC9-4A70-96DD-0B0615261A19}"/>
   </bookViews>
